--- a/post/should-i-buy-a-house/should-I-buy-a-house.xlsx
+++ b/post/should-i-buy-a-house/should-I-buy-a-house.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D-Drive\website\content\post\buy-house\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D-Drive\website\content\post\should-i-buy-a-house\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185035C-2FE2-4ABD-87F0-1B5EE23B14BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5093B13E-5AE2-44B0-8FC3-DA27486F6FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +416,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +431,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1500000</v>
       </c>
     </row>
@@ -446,7 +447,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>9000</v>
       </c>
     </row>
@@ -454,7 +455,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>800</v>
       </c>
     </row>
@@ -462,7 +463,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>300</v>
       </c>
     </row>
@@ -518,7 +519,7 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2500</v>
       </c>
     </row>
@@ -526,7 +527,7 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>$B$3*12*$B$7</f>
         <v>3240000</v>
       </c>
@@ -535,7 +536,7 @@
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f>$B$3*12*($E$10*($E$10^$B$7-1)/($E$10-1))</f>
         <v>435668526.15101069</v>
       </c>
@@ -544,7 +545,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f>$B16-B15</f>
         <v>432428526.15101069</v>
       </c>
@@ -553,7 +554,7 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f>$B12*12*$B$7</f>
         <v>900000</v>
       </c>
